--- a/marks.xlsx
+++ b/marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRINCY ANGELINA\Documents\Git Repositories\datasciencecoursera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{889CB860-4A93-46D3-BF05-06A80FC522B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F13D880-1DB4-4A7E-AB31-C6ABC6498FCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3F1F01F8-2B36-4651-949D-656B74B80F75}"/>
   </bookViews>
@@ -38,12 +38,6 @@
     <t>Statistics</t>
   </si>
   <si>
-    <t>JAVA</t>
-  </si>
-  <si>
-    <t>Operating Systems</t>
-  </si>
-  <si>
     <t>Satya</t>
   </si>
   <si>
@@ -69,6 +63,12 @@
   </si>
   <si>
     <t>Vinod</t>
+  </si>
+  <si>
+    <t>Relational Calculus</t>
+  </si>
+  <si>
+    <t>Algebra</t>
   </si>
 </sst>
 </file>
@@ -432,14 +432,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -451,15 +451,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>95</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>96</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>70</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>93</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>91</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>94</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>92</v>
@@ -557,16 +557,16 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
